--- a/biology/Zoologie/Braulidae/Braulidae.xlsx
+++ b/biology/Zoologie/Braulidae/Braulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poux des abeilles  forment une famille (Braulidae) de sept espèces de petites mouches (diptères) au physique aberrant, aptères, en forme de tonnelet, mesurant moins de 1,5 mm de long et vivant en ectoparasites des abeilles. Les larves consomment la cire et le pollen emmagasinés.
 </t>
@@ -511,7 +523,9 @@
           <t>Genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La famille Braulidae compte deux genres et 7 espèces :
 genre Braula
